--- a/江苏省赛预选赛排名.xlsx
+++ b/江苏省赛预选赛排名.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>队伍人员名单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,13 +38,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡先念-曹越-唐俊</t>
-  </si>
-  <si>
     <t>施博文-陈靖宇-沈逸凡</t>
-  </si>
-  <si>
-    <t>张斌杰-马然-胡广</t>
   </si>
   <si>
     <t>冯超宇-虞千迪-刘子晗</t>
@@ -116,6 +110,22 @@
   </si>
   <si>
     <t>凝固白头发</t>
+  </si>
+  <si>
+    <t>张斌杰-曹越-唐俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈浩浩-马然-胡广</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总解题数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总罚时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -454,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -469,12 +479,15 @@
     <col min="5" max="5" width="15.90625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" style="1"/>
     <col min="7" max="7" width="13.08984375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="10.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.90625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -486,38 +499,58 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>379</v>
+      </c>
+      <c r="I2" s="1">
+        <f>C2+E2+G2</f>
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <f>D2+F2+H2</f>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -525,106 +558,221 @@
       <c r="D3" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>414</v>
+      </c>
+      <c r="I3" s="1">
+        <f>C3+E3+G3</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <f>D3+F3+H3</f>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>797</v>
+      </c>
+      <c r="I4" s="1">
+        <f>C4+E4+G4</f>
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <f>D4+F4+H4</f>
+        <v>797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>989</v>
+      </c>
+      <c r="I5" s="1">
+        <f>C5+E5+G5</f>
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <f>D5+F5+H5</f>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>692</v>
+      </c>
+      <c r="I6" s="1">
+        <f>C6+E6+G6</f>
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <f>D6+F6+H6</f>
+        <v>1000000691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>206</v>
+      </c>
+      <c r="I7" s="1">
+        <f>C7+E7+G7</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <f>D7+F7+H7</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>379</v>
+      </c>
+      <c r="I8" s="1">
+        <f>C8+E8+G8</f>
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <f>D8+F8+H8</f>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>633</v>
+      </c>
+      <c r="I9" s="1">
+        <f>C9+E9+G9</f>
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <f>D9+F9+H9</f>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>224</v>
+      </c>
+      <c r="I10" s="1">
+        <f>C10+E10+G10</f>
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <f>D10+F10+H10</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -634,13 +782,24 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>338</v>
+      </c>
+      <c r="I11" s="1">
+        <f>C11+E11+G11</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <f>D11+F11+H11</f>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -648,8 +807,26 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>C12+E12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <f>D12+F12+H12</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J12">
+    <sortCondition descending="1" ref="I2:I12"/>
+    <sortCondition ref="J2:J12"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/江苏省赛预选赛排名.xlsx
+++ b/江苏省赛预选赛排名.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer-pc\Desktop\acm\acm-log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhbsd\Desktop\acm-log\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558229DB-AC3D-4AF9-AE2F-6B2BB1EEAB76}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>队伍人员名单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +81,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>蒋涛-陈文奇-卜王健</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>周祥正-张逸飞-苏振宁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -126,12 +123,20 @@
   <si>
     <t>总罚时</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四场解题数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋涛-陈文奇-胡先念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,16 +468,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.90625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
@@ -480,12 +485,14 @@
     <col min="6" max="6" width="8.7265625" style="1"/>
     <col min="7" max="7" width="13.08984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" style="1"/>
-    <col min="9" max="9" width="10.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="13.26953125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="10.81640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -511,209 +518,257 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>74</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>414</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>213</v>
+      </c>
+      <c r="K2" s="1">
+        <f>C2+E2+G2+I2</f>
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>64</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>379</v>
-      </c>
-      <c r="I2" s="1">
-        <f>C2+E2+G2</f>
-        <v>4</v>
-      </c>
-      <c r="J2" s="1">
-        <f>D2+F2+H2</f>
-        <v>443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <f>D2+F2+H2+J2</f>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>414</v>
-      </c>
-      <c r="I3" s="1">
-        <f>C3+E3+G3</f>
-        <v>4</v>
-      </c>
-      <c r="J3" s="1">
-        <f>D3+F3+H3</f>
-        <v>488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>248</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K12" si="0">C3+E3+G3+I3</f>
+        <v>7</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L12" si="1">D3+F3+H3+J3</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
       </c>
       <c r="F4" s="1">
+        <v>692</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>256</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="1"/>
+        <v>1000000947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>59</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>206</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>142</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>379</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>112</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>379</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>205</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="1"/>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
         <v>797</v>
       </c>
-      <c r="I4" s="1">
-        <f>C4+E4+G4</f>
-        <v>4</v>
-      </c>
-      <c r="J4" s="1">
-        <f>D4+F4+H4</f>
-        <v>797</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
         <v>63</v>
       </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>989</v>
-      </c>
-      <c r="I5" s="1">
-        <f>C5+E5+G5</f>
-        <v>4</v>
-      </c>
-      <c r="J5" s="1">
-        <f>D5+F5+H5</f>
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>999999999</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>692</v>
-      </c>
-      <c r="I6" s="1">
-        <f>C6+E6+G6</f>
-        <v>4</v>
-      </c>
-      <c r="J6" s="1">
-        <f>D6+F6+H6</f>
-        <v>1000000691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>59</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>206</v>
-      </c>
-      <c r="I7" s="1">
-        <f>C7+E7+G7</f>
-        <v>3</v>
-      </c>
-      <c r="J7" s="1">
-        <f>D7+F7+H7</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>379</v>
-      </c>
-      <c r="I8" s="1">
-        <f>C8+E8+G8</f>
-        <v>3</v>
-      </c>
-      <c r="J8" s="1">
-        <f>D8+F8+H8</f>
-        <v>379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -732,18 +787,24 @@
       <c r="F9" s="1">
         <v>633</v>
       </c>
-      <c r="I9" s="1">
-        <f>C9+E9+G9</f>
-        <v>3</v>
-      </c>
-      <c r="J9" s="1">
-        <f>D9+F9+H9</f>
-        <v>691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>230</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -760,21 +821,27 @@
       <c r="F10" s="1">
         <v>224</v>
       </c>
-      <c r="I10" s="1">
-        <f>C10+E10+G10</f>
+      <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="1">
-        <f>D10+F10+H10</f>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>263</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -788,16 +855,22 @@
       <c r="F11" s="1">
         <v>338</v>
       </c>
-      <c r="I11" s="1">
-        <f>C11+E11+G11</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <f>D11+F11+H11</f>
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>262</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -813,19 +886,25 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="1">
-        <f>C12+E12+G12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <f>D12+F12+H12</f>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J12">
-    <sortCondition descending="1" ref="I2:I12"/>
-    <sortCondition ref="J2:J12"/>
+  <sortState ref="A2:L12">
+    <sortCondition descending="1" ref="K2:K12"/>
+    <sortCondition ref="L2:L12"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/江苏省赛预选赛排名.xlsx
+++ b/江苏省赛预选赛排名.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhbsd\Desktop\acm-log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558229DB-AC3D-4AF9-AE2F-6B2BB1EEAB76}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21BA8A9-E295-4310-8636-C8C949FDEE37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -555,115 +555,139 @@
       <c r="H2" s="1">
         <v>213</v>
       </c>
+      <c r="I2" s="1">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
       <c r="K2" s="1">
-        <f>C2+E2+G2+I2</f>
-        <v>7</v>
+        <f t="shared" ref="K2:K12" si="0">C2+E2+G2+I2</f>
+        <v>18</v>
       </c>
       <c r="L2" s="1">
-        <f>D2+F2+H2+J2</f>
+        <f t="shared" ref="L2:L12" si="1">D2+F2+H2+J2</f>
         <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>989</v>
+        <v>206</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>248</v>
+        <v>142</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1057</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K12" si="0">C3+E3+G3+I3</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L12" si="1">D3+F3+H3+J3</f>
-        <v>1300</v>
+        <f t="shared" si="1"/>
+        <v>1464</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>999999999</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
-        <v>692</v>
+        <v>989</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>256</v>
+        <v>248</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1027</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="1"/>
-        <v>1000000947</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>999999999</v>
+      </c>
+      <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>59</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
       <c r="F5" s="1">
-        <v>206</v>
+        <v>692</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>142</v>
+        <v>256</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1053</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>407</v>
+        <v>1000002000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -691,21 +715,27 @@
       <c r="H6" s="1">
         <v>112</v>
       </c>
+      <c r="I6" s="1">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>590</v>
+      </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>555</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -714,58 +744,70 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1">
-        <v>379</v>
+        <v>797</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>205</v>
+        <v>63</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>726</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="1"/>
-        <v>584</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>379</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>205</v>
+      </c>
+      <c r="I8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>797</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>63</v>
+      <c r="J8" s="1">
+        <v>508</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="1"/>
-        <v>860</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -793,13 +835,19 @@
       <c r="H9" s="1">
         <v>230</v>
       </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>578</v>
+      </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="1"/>
-        <v>921</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -827,13 +875,19 @@
       <c r="H10" s="1">
         <v>263</v>
       </c>
+      <c r="I10" s="1">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1007</v>
+      </c>
       <c r="K10" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="1"/>
-        <v>487</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -861,13 +915,19 @@
       <c r="H11" s="1">
         <v>262</v>
       </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>529</v>
+      </c>
       <c r="K11" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -892,13 +952,19 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>106</v>
+      </c>
       <c r="K12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
